--- a/src/main/MonsterDataBase.xlsx
+++ b/src/main/MonsterDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\Game\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F67B4F-07A3-47AD-849A-AE26E955B849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0761A-2130-4CBA-9C95-B4F0858D37F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2070" yWindow="5730" windowWidth="22980" windowHeight="15345" xr2:uid="{31CA990E-DEC5-4FAA-81B1-19A7BDD9360C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{31CA990E-DEC5-4FAA-81B1-19A7BDD9360C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,36 +463,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
@@ -631,6 +601,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -638,18 +617,39 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -666,14 +666,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{881BBE1F-988E-4E02-8564-2E80D07F60F3}" name="表1" displayName="表1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{881BBE1F-988E-4E02-8564-2E80D07F60F3}" name="表1" displayName="表1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F1048576" xr:uid="{881BBE1F-988E-4E02-8564-2E80D07F60F3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF55BBDF-E7E7-491A-868D-366EB339303E}" name="type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3D28BA86-7511-452B-82B5-030A64CE092B}" name="name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4689BAE8-8E2F-4EF7-92CE-84FC68F9C355}" name="icon" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7C9A25AC-5325-4ED7-B10D-641A1AA9101F}" name="class" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{153BAC89-9388-439A-A34F-71719365EAE8}" name="detail" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FF55BBDF-E7E7-491A-868D-366EB339303E}" name="type" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3D28BA86-7511-452B-82B5-030A64CE092B}" name="name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4689BAE8-8E2F-4EF7-92CE-84FC68F9C355}" name="icon" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{7C9A25AC-5325-4ED7-B10D-641A1AA9101F}" name="class" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{153BAC89-9388-439A-A34F-71719365EAE8}" name="detail" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{E82EF62D-7998-4F1D-BA3C-6CEC2640128D}" name="main_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.625" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1039,6 +1039,9 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1056,6 +1059,9 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1073,6 +1079,9 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1090,6 +1099,9 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1107,6 +1119,9 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1124,6 +1139,9 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1141,6 +1159,9 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1158,6 +1179,9 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
@@ -1175,6 +1199,9 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
       <c r="D10" s="5">
         <v>0</v>
       </c>
@@ -1192,6 +1219,9 @@
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1209,6 +1239,9 @@
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1226,6 +1259,9 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1243,6 +1279,9 @@
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1260,6 +1299,9 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1277,6 +1319,9 @@
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1294,6 +1339,9 @@
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1311,6 +1359,9 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1328,6 +1379,9 @@
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
       <c r="D19" s="5">
         <v>0</v>
       </c>
@@ -1344,6 +1398,9 @@
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
